--- a/xl2roefact/invoice_files/Fact_Petrom_11017969.xlsx
+++ b/xl2roefact/invoice_files/Fact_Petrom_11017969.xlsx
@@ -587,9 +587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>473040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -603,7 +603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4739040" y="162000"/>
-          <a:ext cx="1951560" cy="846720"/>
+          <a:ext cx="1951200" cy="846360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,7 +629,7 @@
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.11"/>
